--- a/JAVA txt/0822/맵 리스트 이중for문.xlsx
+++ b/JAVA txt/0822/맵 리스트 이중for문.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA txt\0822\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72EAF4D-6AC6-4FAD-92D8-70631E758B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFC0D5E-610C-4DDA-BB64-00E476220077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00AE4495-D596-42A1-830E-751D1C3D54E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00AE4495-D596-42A1-830E-751D1C3D54E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="맵 구조 이해" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>1반</t>
     <phoneticPr fontId="1"/>
@@ -181,12 +182,393 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵 구조 이해</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵을 선언</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>각 나라의 음식을 맵으로 출력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>나라이름: 나라요리3가지 형식으로 짤 예저</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>즉 나라요리는 리스트로 짜야 됨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵에서 타입 지정은 이하와 같음</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>문자열,리스트&lt;문자열&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>리스트에 넣을 땐 add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵에 넣을 땐 put</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>리스트 작성</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵 선언</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>리스트 선언</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵 작성</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>라벨 붙이기</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>확장for문 사용</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>소스분석</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나라 : 나라요리3가지 형태로 매칭을 잡을 것이기 때문에 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>타입지정을 문자열,리스트&lt;문자열&gt;로 잡는다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>리스트를 선언</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>리스트에는 각나라의 요리 3가지를 넣을 것이기 때문에</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>타입을 문자열로 잡는다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koreaFoodList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>비빔밥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>삼겹살</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List명</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(일본 중국도 동일히 작성)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chinaFoodList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>japanFoodList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>마파두부</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>훠궈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>꿔바로우</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>스시</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>라멘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>돈카츠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>각 리스트에 라벨을 붙인다는 개념</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맵안에 리스트도 들어있기 때문에 2중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문으로 출력해야함</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(한국,중국,일본)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>키셋팅 즉 각각의 라벨을 countryName에 넣겠다는 의미</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foodNameList란 리스트를 생성</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">맵에서 출력은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 사용</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵에서 출력은 get을 사용</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryFoodMap.get(countryName) 을 foodNmaeList에 넣을 것</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이 때 countryName에는 반복문으로 한국 중국 일본 순으로 돌 것이고</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">countryFoodMap의 상황은 다음과 같은 상황에서 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryFoodMap.get(한국)의 경우는 koreaFoodList의 리스트가 출력됨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이걸foodNameList에 넣을 것.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>리스트명</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foodNameList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">그다음 바로 반복문을 돌릴 건데 내용은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>foodNameList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 리스트를 하나씩 넣을거고</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이를 출력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출력 정리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>여기서 각 맵의 키(라벨)을 불러옴 처음은 한국 을 불러오고</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>한국은 여기에 들어감</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>맵.get(한국)으로 한국과 매칭된 값을 출력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>여기에 출력된 걸 넣음</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>에 비빔밥이 들어갈거고 비빔밥을 출력후 삼겹살 넣고 삼겹살 출력..반복</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>그러면 다시</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>에 일본이 들어가고 반복이 돌거임</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,16 +591,68 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -382,13 +816,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +845,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,41 +893,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,6 +953,1120 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C356D851-8126-4ABA-85B2-34778624BEC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259080" y="883920"/>
+          <a:ext cx="4290060" cy="5494020"/>
+          <a:chOff x="259080" y="883920"/>
+          <a:chExt cx="4290060" cy="5494020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="グループ化 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211DFDBA-EBAD-4C91-A8D7-B5DB5D59B53D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="259080" y="914400"/>
+            <a:ext cx="4290060" cy="5463540"/>
+            <a:chOff x="236220" y="883920"/>
+            <a:chExt cx="9593580" cy="13091160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="図 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B3C8D9-5BAA-4E0E-B187-69BF02A6070D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="281940" y="883920"/>
+              <a:ext cx="9471660" cy="6682740"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="図 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0DC0C8-2C9B-4B16-B3DC-A251ADCC4104}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="236220" y="7307580"/>
+              <a:ext cx="9593580" cy="6667500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794B7EE6-1875-44E9-94D7-F1064F9D74FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="289560" y="883920"/>
+            <a:ext cx="4244340" cy="5494020"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFCDAD9-B092-45E7-B5CB-C5C4730E40EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="274320" y="7467600"/>
+          <a:ext cx="9532620" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E540044-8457-42D4-B536-DB224F67F7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="293370" y="8633460"/>
+          <a:ext cx="6880860" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D8D036-5E68-4CFB-985C-D7C59EE451E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="289560" y="9768840"/>
+          <a:ext cx="4069080" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABA7B69-D563-4E98-81AF-3BFF38B15092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="281940" y="11871960"/>
+          <a:ext cx="5890260" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D2195B-18A0-4FD9-AF22-FEBC6DBAE3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="281940" y="14127480"/>
+          <a:ext cx="8023860" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290944</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>179418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579119</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>4851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D52D5E-4F2E-495A-839E-13AC98237B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="290944" y="15959745"/>
+          <a:ext cx="5234248" cy="296488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A8D2EF-FF19-4AAE-AA55-313B469B3178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="16226790"/>
+          <a:ext cx="6473190" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11084</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>151707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591589</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>212667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DB0FC9-4E81-4C96-A97A-BDD53B4092A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="300644" y="20268507"/>
+          <a:ext cx="3262745" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE981B92-87F7-4EE4-9B54-23379C8F9190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="289560" y="21488400"/>
+          <a:ext cx="8023860" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFAFE7F-AA16-44FF-9FE9-C0B8439A9814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="300990" y="23107650"/>
+          <a:ext cx="1238250" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E3F7D6-9E7A-40AA-A0BA-1228B81FA9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="23557230"/>
+          <a:ext cx="3322320" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017AB020-44C1-489C-BB7C-866A4F996AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="281940" y="25172670"/>
+          <a:ext cx="1310640" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364499B7-DC37-42B4-ADB3-E3F750E8BF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="26487120"/>
+          <a:ext cx="480060" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9322CFC2-0F43-49F0-A3DD-84AB6D43ACFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="22639020"/>
+          <a:ext cx="2484120" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF88AF2B-08F1-48E9-9F33-832A29F70D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="289560" y="27432000"/>
+          <a:ext cx="1238250" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF17E1B-27F5-4384-8C41-E2A58E4A719D}">
   <dimension ref="B1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -774,166 +2380,166 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="4"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="4"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="s">
+      <c r="B5" s="16"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="4"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="13" t="s">
+      <c r="B6" s="16"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="4"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="4"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
@@ -942,20 +2548,20 @@
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="4"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B11" s="4"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -963,20 +2569,20 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B14" s="5"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,4 +2601,751 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706F0590-82BF-4A08-BCEF-FA9EE384C9BC}">
+  <dimension ref="A2:L121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.796875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="I5" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="I13" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="I17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="I19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="I21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="24"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="F48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="J48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="25"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="26">
+        <v>0</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="F49" s="26">
+        <v>0</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="J49" s="26">
+        <v>0</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L49" s="25"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="26">
+        <v>1</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="F50" s="26">
+        <v>1</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="J50" s="26">
+        <v>1</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L50" s="25"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="26">
+        <v>2</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="F51" s="26">
+        <v>2</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="J51" s="26">
+        <v>2</v>
+      </c>
+      <c r="K51" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="F57" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="J57" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="F58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="J58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="25"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="26">
+        <v>0</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="F59" s="26">
+        <v>0</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="J59" s="26">
+        <v>0</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="25"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="26">
+        <v>1</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="F60" s="26">
+        <v>1</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="J60" s="26">
+        <v>1</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="26">
+        <v>2</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="F61" s="26">
+        <v>2</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="J61" s="26">
+        <v>2</v>
+      </c>
+      <c r="K61" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" s="25"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="F78" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="J78" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="F79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="J79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K79" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" s="25"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="26">
+        <v>0</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="F80" s="26">
+        <v>0</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="25"/>
+      <c r="J80" s="26">
+        <v>0</v>
+      </c>
+      <c r="K80" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" s="25"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="26">
+        <v>1</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="F81" s="26">
+        <v>1</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="J81" s="26">
+        <v>1</v>
+      </c>
+      <c r="K81" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L81" s="25"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="26">
+        <v>2</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="F82" s="26">
+        <v>2</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="J82" s="26">
+        <v>2</v>
+      </c>
+      <c r="K82" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L82" s="25"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="26">
+        <v>0</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="26">
+        <v>1</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="26">
+        <v>2</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="25"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="32"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="33">
+        <v>0</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="32"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="33">
+        <v>1</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" s="32"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="33">
+        <v>2</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="32"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="33">
+        <v>0</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="32"/>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="33">
+        <v>1</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="32"/>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="33">
+        <v>2</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="32"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="D121" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C48:D48"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/JAVA txt/0822/맵 리스트 이중for문.xlsx
+++ b/JAVA txt/0822/맵 리스트 이중for문.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA txt\0822\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFC0D5E-610C-4DDA-BB64-00E476220077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3614FD-6100-41C3-8679-ECB20E0F2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00AE4495-D596-42A1-830E-751D1C3D54E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00AE4495-D596-42A1-830E-751D1C3D54E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="맵 구조 이해" sheetId="2" r:id="rId2"/>
+    <sheet name="맵 구조 이해" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,162 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>김일반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>이일반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>최일반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>김이반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>이이반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>최이반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>김삼반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>이삼반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>최삼반</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>class1NameList</t>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NameList</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NameList</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>classNameMap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>for(String className : classNameMap.keySet()) {</t>
-  </si>
-  <si>
-    <t>System.out.println(className + ":" + name);</t>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>className이라는 변수에 키값 1반, 2반, 3반을 넣는다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>get으로 각 키값을 출력 해서 name에 하나씩 넣는다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>그래서 이름을 출력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>for(String name: classNameMap.get(className)) {</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>classNameMap.get(className)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>&lt;-리스트이다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
@@ -652,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -676,21 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -699,119 +528,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -835,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,57 +562,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -908,13 +573,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,19 +597,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2365,948 +2033,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF17E1B-27F5-4384-8C41-E2A58E4A719D}">
-  <dimension ref="B1:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706F0590-82BF-4A08-BCEF-FA9EE384C9BC}">
+  <dimension ref="A2:L121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T99" sqref="T99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18">
-      <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="16"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="16"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="16"/>
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:18" ht="18.600000000000001" thickBot="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D12:D14"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706F0590-82BF-4A08-BCEF-FA9EE384C9BC}">
-  <dimension ref="A2:L121"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.796875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="I5" s="23" t="s">
-        <v>36</v>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="I13" s="22" t="s">
-        <v>34</v>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="I15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="24"/>
+      <c r="I15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="17"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="I17" s="23" t="s">
-        <v>38</v>
+      <c r="I17" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="I19" s="23" t="s">
-        <v>40</v>
+      <c r="I19" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="I21" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="23" t="s">
-        <v>27</v>
+      <c r="B35" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="24"/>
+      <c r="B40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="24"/>
+      <c r="B47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="17"/>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="15"/>
       <c r="F48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="15"/>
       <c r="J48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="26">
+      <c r="B49" s="7">
         <v>0</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="F49" s="26">
+      <c r="C49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="F49" s="7">
         <v>0</v>
       </c>
-      <c r="G49" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="J49" s="26">
+      <c r="G49" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="J49" s="7">
         <v>0</v>
       </c>
-      <c r="K49" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L49" s="25"/>
+      <c r="K49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="15"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="26">
+      <c r="B50" s="7">
         <v>1</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="F50" s="26">
+      <c r="C50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="F50" s="7">
         <v>1</v>
       </c>
-      <c r="G50" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="J50" s="26">
+      <c r="G50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="J50" s="7">
         <v>1</v>
       </c>
-      <c r="K50" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L50" s="25"/>
+      <c r="K50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="15"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="26">
+      <c r="B51" s="7">
         <v>2</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="F51" s="26">
+      <c r="C51" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="F51" s="7">
         <v>2</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="J51" s="26">
+      <c r="G51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="J51" s="7">
         <v>2</v>
       </c>
-      <c r="K51" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="L51" s="25"/>
+      <c r="K51" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="15"/>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="F57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="F57" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="J57" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="J57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="15"/>
       <c r="F58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="15"/>
       <c r="J58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="15"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="26">
+      <c r="B59" s="7">
         <v>0</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="F59" s="26">
+      <c r="C59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="F59" s="7">
         <v>0</v>
       </c>
-      <c r="G59" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="J59" s="26">
+      <c r="G59" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="J59" s="7">
         <v>0</v>
       </c>
-      <c r="K59" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" s="25"/>
+      <c r="K59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="15"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="26">
+      <c r="B60" s="7">
         <v>1</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="F60" s="26">
+      <c r="C60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="F60" s="7">
         <v>1</v>
       </c>
-      <c r="G60" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="25"/>
-      <c r="J60" s="26">
+      <c r="G60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="J60" s="7">
         <v>1</v>
       </c>
-      <c r="K60" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L60" s="25"/>
+      <c r="K60" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="15"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="26">
+      <c r="B61" s="7">
         <v>2</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="25"/>
-      <c r="F61" s="26">
+      <c r="C61" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="F61" s="7">
         <v>2</v>
       </c>
-      <c r="G61" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" s="25"/>
-      <c r="J61" s="26">
+      <c r="G61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="J61" s="7">
         <v>2</v>
       </c>
-      <c r="K61" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="L61" s="25"/>
+      <c r="K61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="15"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>66</v>
+      <c r="B67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="21" t="s">
-        <v>70</v>
+      <c r="B74" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:12">
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="F78" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="J78" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
+      <c r="B78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="F78" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="J78" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="15"/>
       <c r="F79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H79" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="15"/>
       <c r="J79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K79" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L79" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="15"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="26">
+      <c r="B80" s="7">
         <v>0</v>
       </c>
-      <c r="C80" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="F80" s="26">
+      <c r="C80" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="25"/>
-      <c r="J80" s="26">
+      <c r="G80" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="J80" s="7">
         <v>0</v>
       </c>
-      <c r="K80" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L80" s="25"/>
+      <c r="K80" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="15"/>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="26">
+      <c r="B81" s="7">
         <v>1</v>
       </c>
-      <c r="C81" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="25"/>
-      <c r="F81" s="26">
+      <c r="C81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="F81" s="7">
         <v>1</v>
       </c>
-      <c r="G81" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H81" s="25"/>
-      <c r="J81" s="26">
+      <c r="G81" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="J81" s="7">
         <v>1</v>
       </c>
-      <c r="K81" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L81" s="25"/>
+      <c r="K81" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L81" s="15"/>
     </row>
     <row r="82" spans="2:12">
-      <c r="B82" s="26">
+      <c r="B82" s="7">
         <v>2</v>
       </c>
-      <c r="C82" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="F82" s="26">
+      <c r="C82" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="F82" s="7">
         <v>2</v>
       </c>
-      <c r="G82" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H82" s="25"/>
-      <c r="J82" s="26">
+      <c r="G82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="J82" s="7">
         <v>2</v>
       </c>
-      <c r="K82" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="L82" s="25"/>
+      <c r="K82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="15"/>
     </row>
     <row r="83" spans="2:12">
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:12">
       <c r="B84" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="2:12">
       <c r="B85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="12"/>
     </row>
     <row r="86" spans="2:12">
-      <c r="B86" s="26">
+      <c r="B86" s="7">
         <v>0</v>
       </c>
-      <c r="C86" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="30"/>
+      <c r="C86" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="2:12">
-      <c r="B87" s="26">
+      <c r="B87" s="7">
         <v>1</v>
       </c>
-      <c r="C87" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="30"/>
+      <c r="C87" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="2:12">
-      <c r="B88" s="26">
+      <c r="B88" s="7">
         <v>2</v>
       </c>
-      <c r="C88" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="25"/>
+      <c r="C88" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="15"/>
     </row>
     <row r="91" spans="2:12">
-      <c r="B91" s="21" t="s">
-        <v>79</v>
+      <c r="B91" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="2:12">
-      <c r="B94" s="23" t="s">
-        <v>81</v>
+      <c r="B94" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="B106" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="32"/>
+      <c r="B107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="33">
+      <c r="B108" s="9">
         <v>0</v>
       </c>
-      <c r="C108" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="32"/>
+      <c r="C108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="33">
+      <c r="B109" s="9">
         <v>1</v>
       </c>
-      <c r="C109" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="32"/>
+      <c r="C109" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="33">
+      <c r="B110" s="9">
         <v>2</v>
       </c>
-      <c r="C110" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="32"/>
+      <c r="C110" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="10"/>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="33">
+      <c r="B113" s="9">
         <v>0</v>
       </c>
-      <c r="C113" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="32"/>
+      <c r="C113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="33">
+      <c r="B114" s="9">
         <v>1</v>
       </c>
-      <c r="C114" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="32"/>
+      <c r="C114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="33">
+      <c r="B115" s="9">
         <v>2</v>
       </c>
-      <c r="C115" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D115" s="32"/>
+      <c r="C115" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="10"/>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="D121" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="J57:L57"/>
@@ -3319,29 +2743,34 @@
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
     <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
